--- a/java-design-mode/interview.xlsx
+++ b/java-design-mode/interview.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IdeaProjects\springboot3-learning\java-design-mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8BE3AE-302D-4BDE-A01C-9E3079D50087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2982827-3AE9-4C96-AB52-49C57CC7D36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25365" yWindow="0" windowWidth="25530" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25365" yWindow="0" windowWidth="25530" windowHeight="19605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="382">
   <si>
     <t>线程池的原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,57 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. JDK 和 JRE 有什么区别？</t>
-  </si>
-  <si>
-    <t>2. == 和 equals 的区别是什么？</t>
-  </si>
-  <si>
-    <t>3. 两个对象的 hashCode() 相同，则 equals() 也一定为 true，对吗？</t>
-  </si>
-  <si>
-    <t>4. final 在 Java 中有什么作用？</t>
-  </si>
-  <si>
-    <t>5. Java 中的 Math. round(-1. 5) 等于多少？</t>
-  </si>
-  <si>
-    <t>6. String 属于基础的数据类型吗？</t>
-  </si>
-  <si>
-    <t>7. Java 中操作字符串都有哪些类？它们之间有什么区别？</t>
-  </si>
-  <si>
-    <t>8. String str="i"与 String str=new String("i")一样吗？</t>
-  </si>
-  <si>
-    <t>9. 如何将字符串反转？</t>
-  </si>
-  <si>
-    <t>10. String 类的常用方法都有那些？</t>
-  </si>
-  <si>
-    <t>11. 抽象类必须要有抽象方法吗？</t>
-  </si>
-  <si>
-    <t>12. 普通类和抽象类有哪些区别？</t>
-  </si>
-  <si>
-    <t>13. 抽象类能使用 final 修饰吗？</t>
-  </si>
-  <si>
-    <t>14. 接口和抽象类有什么区别？</t>
-  </si>
-  <si>
-    <t>15. Java 中 IO 流分为几种？</t>
-  </si>
-  <si>
-    <t>16. BIO、NIO、AIO 有什么区别？</t>
-  </si>
-  <si>
-    <t>17. Files的常用方法都有哪些？</t>
-  </si>
-  <si>
     <t>java 集合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,191 +95,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18. Java 容器都有哪些？</t>
-  </si>
-  <si>
-    <t>19. Collection 和 Collections 有什么区别？</t>
-  </si>
-  <si>
-    <t>20. List、Set、Map 之间的区别是什么？</t>
-  </si>
-  <si>
-    <t>21. HashMap 和 Hashtable 有什么区别？</t>
-  </si>
-  <si>
-    <t>22. 如何决定使用 HashMap 还是 TreeMap？</t>
-  </si>
-  <si>
-    <t>23. 说一下 HashMap 的实现原理？</t>
-  </si>
-  <si>
-    <t>24. 说一下 HashSet 的实现原理？</t>
-  </si>
-  <si>
-    <t>25. ArrayList 和 LinkedList 的区别是什么？</t>
-  </si>
-  <si>
-    <t>26. 如何实现数组和 List 之间的转换？</t>
-  </si>
-  <si>
-    <t>27. ArrayList 和 Vector 的区别是什么？</t>
-  </si>
-  <si>
-    <t>28. Array 和 ArrayList 有何区别？</t>
-  </si>
-  <si>
-    <t>29. 在 Queue 中 poll()和 remove()有什么区别？</t>
-  </si>
-  <si>
-    <t>30. 哪些集合类是线程安全的？</t>
-  </si>
-  <si>
-    <t>31. 迭代器 Iterator 是什么？</t>
-  </si>
-  <si>
-    <t>32. Iterator 怎么使用？有什么特点？</t>
-  </si>
-  <si>
-    <t>33. Iterator 和 ListIterator 有什么区别？</t>
-  </si>
-  <si>
-    <t>34. 怎么确保一个集合不能被修改？</t>
-  </si>
-  <si>
     <t>多线程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35. 并行和并发有什么区别？</t>
-  </si>
-  <si>
-    <t>36. 线程和进程的区别？</t>
-  </si>
-  <si>
-    <t>37. 守护线程是什么？</t>
-  </si>
-  <si>
-    <t>38. 创建线程有哪几种方式？</t>
-  </si>
-  <si>
-    <t>39. 说一下 runnable 和 callable 有什么区别？</t>
-  </si>
-  <si>
-    <t>40. 线程有哪些状态？</t>
-  </si>
-  <si>
-    <t>41. sleep() 和 wait() 有什么区别？</t>
-  </si>
-  <si>
-    <t>42. notify()和 notifyAll()有什么区别？</t>
-  </si>
-  <si>
-    <t>43. 线程的 run() 和 start() 有什么区别？</t>
-  </si>
-  <si>
-    <t>44. 创建线程池有哪几种方式？</t>
-  </si>
-  <si>
-    <t>45. 线程池都有哪些状态？</t>
-  </si>
-  <si>
-    <t>46. 线程池中 submit() 和 execute() 方法有什么区别？</t>
-  </si>
-  <si>
-    <t>47. 在 Java 程序中怎么保证多线程的运行安全？</t>
-  </si>
-  <si>
-    <t>48. 多线程中 synchronized 锁升级的原理是什么？</t>
-  </si>
-  <si>
-    <t>49. 什么是死锁？</t>
-  </si>
-  <si>
-    <t>50. 怎么防止死锁？</t>
-  </si>
-  <si>
     <t>51. ThreadLocal 是什么？有哪些使用场景？</t>
   </si>
   <si>
-    <t>52. 说一下 synchronized 底层实现原理？</t>
-  </si>
-  <si>
-    <t>53. synchronized 和 volatile 的区别是什么？</t>
-  </si>
-  <si>
-    <t>54. synchronized 和 Lock 有什么区别？</t>
-  </si>
-  <si>
-    <t>55. synchronized 和 ReentrantLock 区别是什么？</t>
-  </si>
-  <si>
-    <t>56. 说一下 atomic 的原理？</t>
-  </si>
-  <si>
     <t>反射</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>58. 什么是 Java 序列化？什么情况下需要序列化？</t>
-  </si>
-  <si>
-    <t>59. 动态代理是什么？有哪些应用？</t>
-  </si>
-  <si>
-    <t>60. 怎么实现动态代理？</t>
-  </si>
-  <si>
     <t>Java Web</t>
   </si>
   <si>
-    <t>64. JSP 和 servlet 有什么区别？</t>
-  </si>
-  <si>
-    <t>65. JSP 有哪些内置对象？作用分别是什么？</t>
-  </si>
-  <si>
-    <t>66. 说一下 JSP 的 4 种作用域？</t>
-  </si>
-  <si>
-    <t>67. session 和 cookie 有什么区别？</t>
-  </si>
-  <si>
-    <t>68. 说一下 session 的工作原理？</t>
-  </si>
-  <si>
-    <t>69. 如果客户端禁止 cookie 能实现 session 还能用吗？</t>
-  </si>
-  <si>
-    <t>70. spring mvc 和 struts 的区别是什么？</t>
-  </si>
-  <si>
-    <t>71. 如何避免 SQL 注入？</t>
-  </si>
-  <si>
-    <t>72. 什么是 XSS 攻击，如何避免？</t>
-  </si>
-  <si>
-    <t>73. 什么是 CSRF 攻击，如何避免？</t>
-  </si>
-  <si>
     <t>异常</t>
   </si>
   <si>
-    <t>74. throw 和 throws 的区别？</t>
-  </si>
-  <si>
-    <t>75. final、finally、finalize 有什么区别？</t>
-  </si>
-  <si>
-    <t>76. try-catch-finally 中哪个部分可以省略？</t>
-  </si>
-  <si>
-    <t>77. try-catch-finally 中，如果 catch 中 return 了，finally 还会执行吗？</t>
-  </si>
-  <si>
-    <t>78. 常见的异常类有哪些？</t>
-  </si>
-  <si>
     <t>设计模式</t>
   </si>
   <si>
@@ -343,201 +124,21 @@
     <t>Spring</t>
   </si>
   <si>
-    <t>90. 为什么要使用 spring？</t>
-  </si>
-  <si>
-    <t>93. spring 有哪些主要模块？</t>
-  </si>
-  <si>
-    <t>94. spring 常用的注入方式有哪些？</t>
-  </si>
-  <si>
-    <t>95. spring 中的 bean 是线程安全的吗？</t>
-  </si>
-  <si>
-    <t>96. spring 支持几种 bean 的作用域？</t>
-  </si>
-  <si>
-    <t>97. spring 自动装配 bean 有哪些方式？</t>
-  </si>
-  <si>
-    <t>98. spring 事务实现方式有哪些？</t>
-  </si>
-  <si>
-    <t>99. 说一下 spring 的事务隔离？</t>
-  </si>
-  <si>
-    <t>100. 说一下 spring mvc 运行流程？</t>
-  </si>
-  <si>
     <t>Spring Boot</t>
   </si>
   <si>
-    <t>104. 什么是 spring boot？</t>
-  </si>
-  <si>
-    <t>105. 为什么要用 spring boot？</t>
-  </si>
-  <si>
-    <t>106. spring boot 核心配置文件是什么？</t>
-  </si>
-  <si>
-    <t>107. spring boot 配置文件有哪几种类型？它们有什么区别？</t>
-  </si>
-  <si>
-    <t>108. spring boot 有哪些方式可以实现热部署？</t>
-  </si>
-  <si>
-    <t>109. jpa 和 hibernate 有什么区别？</t>
-  </si>
-  <si>
     <t>Hibernate</t>
   </si>
   <si>
-    <t>113. 为什么要使用 hibernate？</t>
-  </si>
-  <si>
-    <t>114. 什么是 ORM 框架？</t>
-  </si>
-  <si>
-    <t>115. hibernate 中如何在控制台查看打印的 SQL 语句？</t>
-  </si>
-  <si>
-    <t>116. hibernate 有几种查询方式？</t>
-  </si>
-  <si>
-    <t>117. hibernate 实体类可以被定义为 final 吗？</t>
-  </si>
-  <si>
-    <t>118. 在 hibernate 中使用 Integer 和 int 做映射有什么区别？</t>
-  </si>
-  <si>
-    <t>119. hibernate 是如何工作的？</t>
-  </si>
-  <si>
-    <t>120. get()和 load()的区别？</t>
-  </si>
-  <si>
-    <t>121. 说一下 hibernate 的缓存机制？</t>
-  </si>
-  <si>
-    <t>122. hibernate 对象有哪些状态？</t>
-  </si>
-  <si>
-    <t>123. 在 hibernate 中 getCurrentSession 和 openSession 的区别是什么？</t>
-  </si>
-  <si>
-    <t>124. hibernate 实体类必须要有无参构造函数吗？为什么？</t>
-  </si>
-  <si>
     <t>Kafka</t>
   </si>
   <si>
-    <t>153. kafka 有几种数据保留的策略？</t>
-  </si>
-  <si>
-    <t>154. kafka 同时设置了 7 天和 10G 清除数据，到第五天的时候消息达到了 10G，这个时候 kafka 将如何处理？</t>
-  </si>
-  <si>
-    <t>155. 什么情况会导致 kafka 运行变慢？</t>
-  </si>
-  <si>
-    <t>156. 使用 kafka 集群需要注意什么？</t>
-  </si>
-  <si>
     <t>MySQL</t>
   </si>
   <si>
-    <t>164. 数据库的三范式是什么？</t>
-  </si>
-  <si>
-    <t>165. 一张自增表里面总共有 7 条数据，删除了最后 2 条数据，重启 MySQL 数据库，又插入了一条数据，此时 id 是几？</t>
-  </si>
-  <si>
-    <t>166. 如何获取当前数据库版本？</t>
-  </si>
-  <si>
-    <t>167. 说一下 ACID 是什么？</t>
-  </si>
-  <si>
-    <t>168. char 和 varchar 的区别是什么？</t>
-  </si>
-  <si>
-    <t>169. float 和 double 的区别是什么？</t>
-  </si>
-  <si>
-    <t>170. MySQL 的内连接、左连接、右连接有什么区别？</t>
-  </si>
-  <si>
-    <t>171. MySQL 索引是怎么实现的？</t>
-  </si>
-  <si>
-    <t>172. 怎么验证 MySQL 的索引是否满足需求？</t>
-  </si>
-  <si>
-    <t>173. 说一下数据库的事务隔离？</t>
-  </si>
-  <si>
-    <t>174. 说一下 MySQL 常用的引擎？</t>
-  </si>
-  <si>
-    <t>175. 说一下 MySQL 的行锁和表锁？</t>
-  </si>
-  <si>
-    <t>176. 说一下乐观锁和悲观锁？</t>
-  </si>
-  <si>
-    <t>177. MySQL 问题排查都有哪些手段？</t>
-  </si>
-  <si>
-    <t>178. 如何做 MySQL 的性能优化？</t>
-  </si>
-  <si>
     <t>JVM</t>
   </si>
   <si>
-    <t>194. 说一下 JVM 的主要组成部分？及其作用？</t>
-  </si>
-  <si>
-    <t>195. 说一下 JVM 运行时数据区？</t>
-  </si>
-  <si>
-    <t>196. 说一下堆栈的区别？</t>
-  </si>
-  <si>
-    <t>197. 队列和栈是什么？有什么区别？</t>
-  </si>
-  <si>
-    <t>198. 什么是双亲委派模型？</t>
-  </si>
-  <si>
-    <t>199. 说一下类装载的执行过程？</t>
-  </si>
-  <si>
-    <t>200. 怎么判断对象是否可以被回收？</t>
-  </si>
-  <si>
-    <t>201. Java 中都有哪些引用类型？</t>
-  </si>
-  <si>
-    <t>202. 说一下 JVM 有哪些垃圾回收算法？</t>
-  </si>
-  <si>
-    <t>203. 说一下 JVM 有哪些垃圾回收器？</t>
-  </si>
-  <si>
-    <t>204. 详细介绍一下 CMS 垃圾回收器？</t>
-  </si>
-  <si>
-    <t>205. 新生代垃圾回收器和老生代垃圾回收器都有哪些？有什么区别？</t>
-  </si>
-  <si>
-    <t>206. 简述分代垃圾回收器是怎么工作的？</t>
-  </si>
-  <si>
-    <t>207. 说一下 JVM 调优的工具？</t>
-  </si>
-  <si>
     <t xml:space="preserve">内存泄漏与内存溢出的区别 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -578,14 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>91. 解释一下什么是 aop？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92. spring bean的生命周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spring事务的传播级别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>208. 常用的 JVM 调优的参数你知道的有哪些</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>面向对象编程的三大特性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,10 +227,6 @@
   </si>
   <si>
     <t>什么是线程安全问题？如何解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57. 什么是反射？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -758,105 +343,15 @@
     <t>Java basics</t>
   </si>
   <si>
-    <t>2. What is the difference between == and equals?</t>
-  </si>
-  <si>
-    <t>3. If the hashCode() of two objects is the same, equals() must also be true, right?</t>
-  </si>
-  <si>
-    <t>4. What does final do in Java?</t>
-  </si>
-  <si>
-    <t>5. What is Math.round (-1.5) in Java?</t>
-  </si>
-  <si>
-    <t>6. Is String a basic data type?</t>
-  </si>
-  <si>
-    <t>7. What are the classes of action strings in Java? What's the difference between them?</t>
-  </si>
-  <si>
-    <t>8. Is String str="i" the same as String str=new String("i")?</t>
-  </si>
-  <si>
-    <t>9. How to invert a string?</t>
-  </si>
-  <si>
-    <t>10. What are the common methods of the String class?</t>
-  </si>
-  <si>
     <t>Three features of object-oriented programming</t>
   </si>
   <si>
     <t>Explain method overloading and method overwriting</t>
   </si>
   <si>
-    <t>11. Must abstract classes have abstract methods?</t>
-  </si>
-  <si>
-    <t>12. What are the differences between ordinary classes and abstract classes?</t>
-  </si>
-  <si>
-    <t>13. Can abstract classes use final modification?</t>
-  </si>
-  <si>
-    <t>14. What is the difference between an interface and an abstract class?</t>
-  </si>
-  <si>
-    <t>15. How many types of IO streams are there in Java?</t>
-  </si>
-  <si>
-    <t>16. What is the difference between BIO, NIO and AIO?</t>
-  </si>
-  <si>
     <t>Four ways to create objects in java</t>
   </si>
   <si>
-    <t>194. What are the main components of the JVM? And its role?</t>
-  </si>
-  <si>
-    <t>195. What about the JVM runtime data area?</t>
-  </si>
-  <si>
-    <t>196. What is the difference between stacks?</t>
-  </si>
-  <si>
-    <t>197. What are queues and stacks? What's the difference?</t>
-  </si>
-  <si>
-    <t>198. What is the Parental delegation model?</t>
-  </si>
-  <si>
-    <t>199. Tell me about the execution process of class loading?</t>
-  </si>
-  <si>
-    <t>200. How to determine whether an object can be reclaimed?</t>
-  </si>
-  <si>
-    <t>201. What are the reference types in Java?</t>
-  </si>
-  <si>
-    <t>202. What garbage collection algorithms do the JVM have?</t>
-  </si>
-  <si>
-    <t>203. What garbage collectors does the JVM have?</t>
-  </si>
-  <si>
-    <t>204. Tell me more about the CMS garbage collector?</t>
-  </si>
-  <si>
-    <t>205. What are the new generation garbage recyclers and the old generation garbage recyclers? What's the difference?</t>
-  </si>
-  <si>
-    <t>206. Describe briefly how a generational garbage collector works?</t>
-  </si>
-  <si>
-    <t>207. What about JVM tuning tools?</t>
-  </si>
-  <si>
-    <t>208. What do you know about common JVM tuning parameters</t>
-  </si>
-  <si>
     <t>Difference between memory leak and memory overflow</t>
   </si>
   <si>
@@ -878,121 +373,19 @@
     <t>java collections</t>
   </si>
   <si>
-    <t>18. What are the Java containers?</t>
-  </si>
-  <si>
-    <t>19. What is the difference between Collections and collections?</t>
-  </si>
-  <si>
-    <t>20. What is the difference between List, Set, and Map?</t>
-  </si>
-  <si>
-    <t>21. What is the difference between HashMap and Hashtable?</t>
-  </si>
-  <si>
-    <t>22. How do I decide whether to use HashMap or TreeMap?</t>
-  </si>
-  <si>
-    <t>23. Tell me about the implementation of HashMap?</t>
-  </si>
-  <si>
-    <t>24. Tell me about the implementation of HashSet?</t>
-  </si>
-  <si>
-    <t>25. What is the difference between ArrayList and LinkedList?</t>
-  </si>
-  <si>
-    <t>26. How to convert between array and List?</t>
-  </si>
-  <si>
-    <t>27. What is the difference between ArrayList and Vector?</t>
-  </si>
-  <si>
-    <t>28. What is the difference between Array and ArrayList?</t>
-  </si>
-  <si>
-    <t>29. What is the difference between poll() and remove() in Queue?</t>
-  </si>
-  <si>
-    <t>30. Which collection classes are thread-safe?</t>
-  </si>
-  <si>
-    <t>31. What is an Iterator?</t>
-  </si>
-  <si>
-    <t>32. How to use Iterator? What are its characteristics?</t>
-  </si>
-  <si>
-    <t>33. What is the difference between an Iterator and a ListIterator?</t>
-  </si>
-  <si>
-    <t>34. How do I ensure that a collection cannot be modified?</t>
-  </si>
-  <si>
     <t>hashMap parameter and expansion mechanism</t>
   </si>
   <si>
     <t>multithreading</t>
   </si>
   <si>
-    <t>35. What is the difference between parallelism and concurrency?</t>
-  </si>
-  <si>
-    <t>36. What is the difference between threads and processes?</t>
-  </si>
-  <si>
-    <t>37. What is a daemon thread?</t>
-  </si>
-  <si>
-    <t>38. What are the ways to create threads?</t>
-  </si>
-  <si>
-    <t>39. What is the difference between a runnable and a callable?</t>
-  </si>
-  <si>
-    <t>40. What are the states of the thread?</t>
-  </si>
-  <si>
-    <t>41. What is the difference between sleep() and wait()?</t>
-  </si>
-  <si>
-    <t>42. What is the difference between notify() and notifyAll()?</t>
-  </si>
-  <si>
-    <t>43. What is the difference between run() and start() for a thread?</t>
-  </si>
-  <si>
-    <t>4 ways to terminate threads</t>
-  </si>
-  <si>
     <t>Briefly describe your understanding of thread pools</t>
   </si>
   <si>
-    <t>44. What are the several ways to create a thread pool?</t>
-  </si>
-  <si>
-    <t>45. What are the states of thread pools?</t>
-  </si>
-  <si>
     <t>Keyword of the thread pool</t>
   </si>
   <si>
     <t>Java thread pool working procedure</t>
-  </si>
-  <si>
-    <t>46. What is the difference between the submit() and execute() methods in the thread pool?</t>
-  </si>
-  <si>
-    <t>47. How to ensure the safety of multithreading in Java programs?</t>
-  </si>
-  <si>
-    <t>48. What is the principle of synchronized lock escalation in multithreading?</t>
-  </si>
-  <si>
-    <t>49. What is a deadlock?</t>
-  </si>
-  <si>
-    <t>50. How do I prevent deadlocks?</t>
   </si>
   <si>
     <t>What is thread safety? How to solve</t>
@@ -1005,21 +398,6 @@
 The three main ways to use it.</t>
   </si>
   <si>
-    <t>52. What about the underlying implementation of synchronized?</t>
-  </si>
-  <si>
-    <t>53. What is the difference between synchronized and volatile?</t>
-  </si>
-  <si>
-    <t>54. What's the difference between synchronized and Lock?</t>
-  </si>
-  <si>
-    <t>55. What is the difference between synchronized and ReentrantLock?</t>
-  </si>
-  <si>
-    <t>56. What is the principle of atomic?</t>
-  </si>
-  <si>
     <t>How to interrupt a thread</t>
   </si>
   <si>
@@ -1032,117 +410,21 @@
     <t>reflect</t>
   </si>
   <si>
-    <t>57. What is reflection?</t>
-  </si>
-  <si>
-    <t>58. What is Java Serialization? When is serialization necessary?</t>
-  </si>
-  <si>
-    <t>59. What is dynamic proxy? What are the applications?</t>
-  </si>
-  <si>
-    <t>60. How to implement dynamic proxy?</t>
-  </si>
-  <si>
     <t>In addition to creating an object with new, what methods can you use to create an object</t>
   </si>
   <si>
     <t>Is Java Reflection more efficient at creating objects or is new more efficient at creating objects?</t>
   </si>
   <si>
-    <t>64. What is the difference between JSP and servlet?</t>
-  </si>
-  <si>
-    <t>65. What built-in objects does JSP have? What are the roles?</t>
-  </si>
-  <si>
-    <t>66. What about the four scopes of JSP?</t>
-  </si>
-  <si>
-    <t>67. What is the difference between a session and a cookie?</t>
-  </si>
-  <si>
-    <t>68. How does a session work?</t>
-  </si>
-  <si>
-    <t>69. Can the session be implemented if the client disables cookies?</t>
-  </si>
-  <si>
-    <t>70. What is the difference between spring mvc and struts?</t>
-  </si>
-  <si>
-    <t>71. How do I avoid SQL injection?</t>
-  </si>
-  <si>
-    <t>72. What are XSS attacks and how can I avoid them?</t>
-  </si>
-  <si>
-    <t>73. What is a CSRF attack and how can I avoid it?</t>
-  </si>
-  <si>
     <t>abnormal</t>
   </si>
   <si>
-    <t>74. What's the difference between a throw and a throws?</t>
-  </si>
-  <si>
-    <t>75. What is the difference between final, finally and finalize?</t>
-  </si>
-  <si>
-    <t>76. Which part of try-catch-finally can I omit?</t>
-  </si>
-  <si>
-    <t>77. In try-catch-finally, if the catch returns, will finally be executed?</t>
-  </si>
-  <si>
-    <t>78. What are the common exception classes?</t>
-  </si>
-  <si>
     <t>Design pattern</t>
   </si>
   <si>
-    <t>88. Tell me about a design pattern you are familiar with?</t>
-  </si>
-  <si>
-    <t>89. What is the difference between a simple factory and an abstract factory?</t>
-  </si>
-  <si>
-    <t>90. Why use spring?</t>
-  </si>
-  <si>
-    <t>91. Explain what aop is?</t>
-  </si>
-  <si>
     <t>How AOP can be implemented</t>
   </si>
   <si>
-    <t>92. The life cycle of the spring bean</t>
-  </si>
-  <si>
-    <t>93. What are the main modules of spring?</t>
-  </si>
-  <si>
-    <t>94. What are the common injection methods in spring?</t>
-  </si>
-  <si>
-    <t>95. Are beans in spring thread-safe?</t>
-  </si>
-  <si>
-    <t>96. How many bean scopes does spring support?</t>
-  </si>
-  <si>
-    <t>97. What are the ways spring automates bean assembly?</t>
-  </si>
-  <si>
-    <t>98. What are the ways spring transactions are implemented?</t>
-  </si>
-  <si>
-    <t>99. What about spring's transaction isolation?</t>
-  </si>
-  <si>
-    <t>100. Tell me about the spring mvc running process?</t>
-  </si>
-  <si>
     <t>The propagation level of spring transactions</t>
   </si>
   <si>
@@ -1161,129 +443,18 @@
     <t>Struts workflow</t>
   </si>
   <si>
-    <t>104. What is spring boot?</t>
-  </si>
-  <si>
-    <t>105. Why use spring boot?</t>
-  </si>
-  <si>
-    <t>106. What is the spring boot core configuration file?</t>
-  </si>
-  <si>
-    <t>107. What are the types of spring boot configuration files? What's the difference?</t>
-  </si>
-  <si>
-    <t>108. What are the ways spring boot can implement hot deployment?</t>
-  </si>
-  <si>
-    <t>109. What is the difference between jpa and hibernate?</t>
-  </si>
-  <si>
-    <t>113. Why use hibernate?</t>
-  </si>
-  <si>
-    <t>114. What is ORM framework?</t>
-  </si>
-  <si>
-    <t>115. How to view the printed SQL statement in the console in hibernate?</t>
-  </si>
-  <si>
-    <t>116. How many query ways does hibernate have?</t>
-  </si>
-  <si>
-    <t>117. Can a hibernate entity class be defined as final?</t>
-  </si>
-  <si>
-    <t>118. What is the difference between using Integer and int for mapping in hibernate?</t>
-  </si>
-  <si>
-    <t>119. How does hibernate work?</t>
-  </si>
-  <si>
-    <t>120. What is the difference between get() and load()?</t>
-  </si>
-  <si>
-    <t>121. What about hibernate's caching mechanism?</t>
-  </si>
-  <si>
-    <t>122. What are the states of hibernate objects?</t>
-  </si>
-  <si>
-    <t>123. What is the difference between getCurrentSession and openSession in hibernate?</t>
-  </si>
-  <si>
-    <t>124. Do hibernate entity classes have to have parameterless constructors? Why?</t>
-  </si>
-  <si>
     <t>What are the differences between JPA and Hibernate?</t>
   </si>
   <si>
-    <t>153. How many data retention policies does kafka have?</t>
-  </si>
-  <si>
-    <t>154. kafka sets 7 days and 10 gigabytes of clear data at the same time. When the message reaches 10 gigabytes on the fifth day, what will kafka do?</t>
-  </si>
-  <si>
-    <t>155. What causes kafka to run slowly?</t>
-  </si>
-  <si>
-    <t>156. What should I pay attention to when using a kafka cluster?</t>
-  </si>
-  <si>
-    <t>164. What are the three paradigms of databases?</t>
-  </si>
-  <si>
     <t>Ever try? What's a view</t>
   </si>
   <si>
-    <t>165. There are 7 data in an increment table, delete the last 2 data, restart the MySQL database, and insert another data, then what is the id?</t>
-  </si>
-  <si>
     <t>What are the problems caused by concurrent transactions?</t>
   </si>
   <si>
     <t>What is a stored procedure? With what to call</t>
   </si>
   <si>
-    <t>166. How do I get the current database version?</t>
-  </si>
-  <si>
-    <t>167. What is ACID?</t>
-  </si>
-  <si>
-    <t>168. What is the difference between char and varchar?</t>
-  </si>
-  <si>
-    <t>169. What is the difference between a float and a double?</t>
-  </si>
-  <si>
-    <t>170. What is the difference between MySQL internal join, left join, and right join?</t>
-  </si>
-  <si>
-    <t>171. How is MySQL indexing implemented?</t>
-  </si>
-  <si>
-    <t>172. How do I verify that the MySQL index meets my requirements?</t>
-  </si>
-  <si>
-    <t>173. What about database transaction isolation?</t>
-  </si>
-  <si>
-    <t>174. What is the most common engine for MySQL?</t>
-  </si>
-  <si>
-    <t>175. What about MySQL row locks and table locks?</t>
-  </si>
-  <si>
-    <t>176. What about the optimistic lock and the pessimistic lock?</t>
-  </si>
-  <si>
-    <t>177. What are the methods for troubleshooting MySQL problems?</t>
-  </si>
-  <si>
-    <t>178. How to optimize the performance of MySQL?</t>
-  </si>
-  <si>
     <t>What is a row-level lock</t>
   </si>
   <si>
@@ -1305,11 +476,897 @@
     <t>How to view the log?</t>
   </si>
   <si>
-    <t>1. What is the difference between JDK and JRE?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17. What are the common methods of Files?</t>
+    <t>Static关键字有什么作用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍一下Java的四种引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否了解连接池，使用连接池有什么好处？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 中会存在内存泄漏吗，为什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map有什么特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What does the Static keyword do?</t>
+  </si>
+  <si>
+    <t>Here are four references to Java</t>
+  </si>
+  <si>
+    <t>Can memory leaks exist in Java, and why</t>
+  </si>
+  <si>
+    <t>What are the features of Map</t>
+  </si>
+  <si>
+    <t>Are you familiar with connection pooling and what are the benefits of using connection pooling?</t>
+  </si>
+  <si>
+    <t>What are the methods for troubleshooting MySQL problems?</t>
+  </si>
+  <si>
+    <t>What about the optimistic lock and the pessimistic lock?</t>
+  </si>
+  <si>
+    <t>JDK 和 JRE 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个对象的 hashCode() 相同，则 equals() 也一定为 true，对吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final 在 Java 中有什么作用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 中的 Math. round(-1. 5) 等于多少？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String 属于基础的数据类型吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Java 中操作字符串都有哪些类？它们之间有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何做 MySQL 的性能优化？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MySQL 问题排查都有哪些手段？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下 JVM 的主要组成部分？及其作用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 JVM 运行时数据区？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下堆栈的区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下 JVM 调优的工具？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简述分代垃圾回收器是怎么工作的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String str="i"与 String str=new String("i")一样吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String 类的常用方法都有那些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 如何将字符串反转？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象类能使用 final 修饰吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口和抽象类有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Java 中 IO 流分为几种？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIO、NIO、AIO 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下乐观锁和悲观锁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 MySQL 的行锁和表锁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下数据库的事务隔离？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下 MySQL 常用的引擎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么判断对象是否可以被回收？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 中都有哪些引用类型？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float 和 double 的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 的内连接、左连接、右连接有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 索引是怎么实现的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么验证 MySQL 的索引是否满足需求？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取当前数据库版本？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下 ACID 是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> char 和 varchar 的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列和栈是什么？有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是双亲委派模型？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下类装载的执行过程？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下 JVM 有哪些垃圾回收算法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么情况会导致 kafka 运行变慢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafka 同时设置了 7 天和 10G 清除数据，到第五天的时候消息达到了 10G，这个时候 kafka 将如何处理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection 和 Collections 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 如何决定使用 HashMap 还是 TreeMap？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. HashMap 和 Hashtable 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是 ORM 框架？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 hibernate 中 getCurrentSession 和 openSession 的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate 对象有哪些状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 hibernate 的缓存机制？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用的 JVM 调优的参数你知道的有哪些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. 新生代垃圾回收器和老生代垃圾回收器都有哪些？有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细介绍一下 CMS 垃圾回收器？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 HashMap 的实现原理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下 HashSet 的实现原理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate 有几种查询方式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate 中如何在控制台查看打印的 SQL 语句？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 hibernate 中使用 Integer 和 int 做映射有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的三范式是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafka 有几种数据保留的策略？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 kafka 集群需要注意什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释一下什么是 aop？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Files的常用方法都有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ArrayList 和 LinkedList 的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现数组和 List 之间的转换？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ArrayList 和 Vector 的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Array 和 ArrayList 有何区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 Queue 中 poll()和 remove()有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 哪些集合类是线程安全的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> jpa 和 hibernate 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring boot 有哪些方式可以实现热部署？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring boot 配置文件有哪几种类型？它们有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. spring boot 核心配置文件是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么要用 spring boot？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 spring mvc 运行流程？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 spring 的事务隔离？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> spring 事务实现方式有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring 自动装配 bean 有哪些方式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> spring 支持几种 bean 的作用域？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器 Iterator 是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring bean的生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> spring 有哪些主要模块？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring 常用的注入方式有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> spring 中的 bean 是线程安全的吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> final、finally、finalize 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> throw 和 throws 的区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> try-catch-finally 中，如果 catch 中 return 了，finally 还会执行吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> try-catch-finally 中哪个部分可以省略？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的异常类有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronized 和 Lock 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronized 和 volatile 的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 synchronized 底层实现原理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行和并发有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程和进程的区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 守护线程是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建线程有哪几种方式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 线程有哪些状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是反射？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是 Java 序列化？什么情况下需要序列化？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态代理是什么？有哪些应用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么实现动态代理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP 和 servlet 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 session 的工作原理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 如何避免 SQL 注入？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring mvc 和 struts 的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果客户端禁止 cookie 能实现 session 还能用吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 JSP 的 4 种作用域？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP 有哪些内置对象？作用分别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> session 和 cookie 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronized 和 ReentrantLock 区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 atomic 的原理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么防止死锁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 什么是死锁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 多线程中 synchronized 锁升级的原理是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 Java 程序中怎么保证多线程的运行安全？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 线程池中 submit() 和 execute() 方法有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程池都有哪些状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建线程池有哪几种方式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> sleep() 和 wait() 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> notify()和 notifyAll()有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程的 run() 和 start() 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 runnable 和 callable 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么确保一个集合不能被修改？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iterator 和 ListIterator 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iterator 怎么使用？有什么特点？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the difference between JDK and JRE?</t>
+  </si>
+  <si>
+    <t>If two objects have the same hashCode(), equals() must also be true, right?</t>
+  </si>
+  <si>
+    <t>What does final do in Java?</t>
+  </si>
+  <si>
+    <t>What is Math.round (-1.5) in Java?</t>
+  </si>
+  <si>
+    <t>Is String an underlying data type?</t>
+  </si>
+  <si>
+    <t>What are the classes of action strings in Java? What's the difference between them?</t>
+  </si>
+  <si>
+    <t>Is String str="i" the same as String str=new String("i")?</t>
+  </si>
+  <si>
+    <t>How to invert a string?</t>
+  </si>
+  <si>
+    <t>What are the common methods of the String class?</t>
+  </si>
+  <si>
+    <t>Can abstract classes use final modification?</t>
+  </si>
+  <si>
+    <t>What's the difference between interfaces and abstract classes?</t>
+  </si>
+  <si>
+    <t>How many types of IO streams are there in Java?</t>
+  </si>
+  <si>
+    <t>What is the difference between BIO, NIO and AIO?</t>
+  </si>
+  <si>
+    <t>What are the common methods of Files?</t>
+  </si>
+  <si>
+    <t>What are the main components of the JVM? And its role?</t>
+  </si>
+  <si>
+    <t>What about the JVM runtime data area?</t>
+  </si>
+  <si>
+    <t>What's the difference between stacks?</t>
+  </si>
+  <si>
+    <t>What are queues and stacks? What's the difference?</t>
+  </si>
+  <si>
+    <t>What is the Parent Delegation model?</t>
+  </si>
+  <si>
+    <t>What about the execution of class loading?</t>
+  </si>
+  <si>
+    <t>How do I know if an object can be reclaimed?</t>
+  </si>
+  <si>
+    <t>What are the reference types in Java?</t>
+  </si>
+  <si>
+    <t>What garbage collection algorithms do the JVM have?</t>
+  </si>
+  <si>
+    <t>What about the CMS garbage collector?</t>
+  </si>
+  <si>
+    <t>What are the new generation garbage recyclers and the old generation garbage recyclers? What's the difference?</t>
+  </si>
+  <si>
+    <t>How does a generational garbage collector work?</t>
+  </si>
+  <si>
+    <t>What about JVM tuning tools?</t>
+  </si>
+  <si>
+    <t>What do you know about common JVM tuning parameters</t>
+  </si>
+  <si>
+    <t>What's the difference between Collections and collections?</t>
+  </si>
+  <si>
+    <t>What is the difference between HashMap and Hashtable?</t>
+  </si>
+  <si>
+    <t>How do I decide whether to use HashMap or TreeMap?</t>
+  </si>
+  <si>
+    <t>What about the implementation of HashMap?</t>
+  </si>
+  <si>
+    <t>What about the implementation of HashSet?</t>
+  </si>
+  <si>
+    <t>What is the difference between ArrayList and LinkedList?</t>
+  </si>
+  <si>
+    <t>How to convert between array and List?</t>
+  </si>
+  <si>
+    <t>What is the difference between ArrayList and Vector?</t>
+  </si>
+  <si>
+    <t>What is the difference between Array and ArrayList?</t>
+  </si>
+  <si>
+    <t>What is the difference between poll() and remove() in Queue?</t>
+  </si>
+  <si>
+    <t>Which collection classes are thread-safe?</t>
+  </si>
+  <si>
+    <t>What is an Iterator?</t>
+  </si>
+  <si>
+    <t>How to use Iterator? What are its characteristics?</t>
+  </si>
+  <si>
+    <t>What's the difference between Iterator and ListIterator?</t>
+  </si>
+  <si>
+    <t>How do you ensure that a collection cannot be modified?</t>
+  </si>
+  <si>
+    <t>What is the difference between parallelism and concurrency?</t>
+  </si>
+  <si>
+    <t>What's the difference between threads and processes?</t>
+  </si>
+  <si>
+    <t>What is a daemon thread?</t>
+  </si>
+  <si>
+    <t>What are the ways to create threads?</t>
+  </si>
+  <si>
+    <t>What's the difference between a runnable and a callable?</t>
+  </si>
+  <si>
+    <t>What are the states of the thread?</t>
+  </si>
+  <si>
+    <t>What's the difference between sleep() and wait()?</t>
+  </si>
+  <si>
+    <t>What is the difference between notify() and notifyAll()?</t>
+  </si>
+  <si>
+    <t>What is the difference between run() and start() for a thread?</t>
+  </si>
+  <si>
+    <t>What are the ways to create a thread pool?</t>
+  </si>
+  <si>
+    <t>What are the states of thread pools?</t>
+  </si>
+  <si>
+    <t>What is the difference between the submit() and execute() methods in the thread pool?</t>
+  </si>
+  <si>
+    <t>How to ensure the safety of multithreading in Java program?</t>
+  </si>
+  <si>
+    <t>What is the principle of synchronized lock escalation in multithreading?</t>
+  </si>
+  <si>
+    <t>What is a deadlock?</t>
+  </si>
+  <si>
+    <t>How do I prevent deadlocks?</t>
+  </si>
+  <si>
+    <t>What about the underlying implementation of synchronized?</t>
+  </si>
+  <si>
+    <t>What's the difference between synchronized and volatile?</t>
+  </si>
+  <si>
+    <t>What's the difference between synchronized and Lock?</t>
+  </si>
+  <si>
+    <t>What is the difference between synchronized and ReentrantLock?</t>
+  </si>
+  <si>
+    <t>What's atomic about?</t>
+  </si>
+  <si>
+    <t>What is reflection?</t>
+  </si>
+  <si>
+    <t>What is Java Serialization? When is serialization necessary?</t>
+  </si>
+  <si>
+    <t>What is dynamic proxy? What are the applications?</t>
+  </si>
+  <si>
+    <t>How to implement dynamic proxy?</t>
+  </si>
+  <si>
+    <t>What is the difference between JSP and servlet?</t>
+  </si>
+  <si>
+    <t>What are the built-in objects in JSP? What are the roles?</t>
+  </si>
+  <si>
+    <t>What about the four scopes of JSP?</t>
+  </si>
+  <si>
+    <t>What is the difference between a session and a cookie?</t>
+  </si>
+  <si>
+    <t>How does a session work?</t>
+  </si>
+  <si>
+    <t>Can the session be implemented if the client disables cookies?</t>
+  </si>
+  <si>
+    <t>What is the difference between spring mvc and struts?</t>
+  </si>
+  <si>
+    <t>How to avoid SQL injection?</t>
+  </si>
+  <si>
+    <t>What's the difference between a throw and a throws?</t>
+  </si>
+  <si>
+    <t>What is the difference between final, finally and finalize?</t>
+  </si>
+  <si>
+    <t>What part of try-catch-finally can be omitted?</t>
+  </si>
+  <si>
+    <t>In try-catch-finally, if there is a return in the catch, will finally be executed?</t>
+  </si>
+  <si>
+    <t>What are the common exception classes?</t>
+  </si>
+  <si>
+    <t>Explain what aop is?</t>
+  </si>
+  <si>
+    <t>The life cycle of the spring bean</t>
+  </si>
+  <si>
+    <t>What are the main modules in spring?</t>
+  </si>
+  <si>
+    <t>What are the common injection methods in spring?</t>
+  </si>
+  <si>
+    <t>Are beans in spring thread-safe?</t>
+  </si>
+  <si>
+    <t>How many bean scopes does spring support?</t>
+  </si>
+  <si>
+    <t>What are the ways spring can automatically assemble beans?</t>
+  </si>
+  <si>
+    <t>What are the ways spring transactions are implemented?</t>
+  </si>
+  <si>
+    <t>What about spring's transaction isolation?</t>
+  </si>
+  <si>
+    <t>What about the spring mvc running flow?</t>
+  </si>
+  <si>
+    <t>Why use spring boot?</t>
+  </si>
+  <si>
+    <t>What is the.spring boot core configuration file?</t>
+  </si>
+  <si>
+    <t>What are the types of spring boot configuration files? What's the difference?</t>
+  </si>
+  <si>
+    <t>What are the ways spring boot can implement hot deployment?</t>
+  </si>
+  <si>
+    <t>What is the difference between jpa and hibernate?</t>
+  </si>
+  <si>
+    <t>What is ORM Framework?</t>
+  </si>
+  <si>
+    <t>How to view printed SQL statements in the console in hibernate?</t>
+  </si>
+  <si>
+    <t>How many query ways does hibernate have?</t>
+  </si>
+  <si>
+    <t>What is the difference between using Integer and int for mapping in hibernate?</t>
+  </si>
+  <si>
+    <t>What about hibernate's caching mechanism?</t>
+  </si>
+  <si>
+    <t>What are the states of hibernate objects?</t>
+  </si>
+  <si>
+    <t>What is the difference between getCurrentSession and openSession in hibernate?</t>
+  </si>
+  <si>
+    <t>How many data retention strategies does kafka have?</t>
+  </si>
+  <si>
+    <t>kafka sets both 7 days and 10 gigabytes to clear data, and when the message reaches 10 gigabytes on the fifth day, what will kafka do?</t>
+  </si>
+  <si>
+    <t>What causes kafka to run slowly?</t>
+  </si>
+  <si>
+    <t>What should I pay attention to when using a kafka cluster?</t>
+  </si>
+  <si>
+    <t>What are the three normal forms of a database?</t>
+  </si>
+  <si>
+    <t>How do I get the current database version?</t>
+  </si>
+  <si>
+    <t>What is ACID?</t>
+  </si>
+  <si>
+    <t>What is the difference between char and varchar?</t>
+  </si>
+  <si>
+    <t>What's the difference between a float and a double?</t>
+  </si>
+  <si>
+    <t>What is the difference between MySQL internal join, left join, and right join?</t>
+  </si>
+  <si>
+    <t>How is MySQL index implemented?</t>
+  </si>
+  <si>
+    <t>How to verify that the MySQL index meets the requirements?</t>
+  </si>
+  <si>
+    <t>What about database transaction isolation?</t>
+  </si>
+  <si>
+    <t>What is the common engine used by MySQL?</t>
+  </si>
+  <si>
+    <t>What about MySQL row locks and table locks?</t>
+  </si>
+  <si>
+    <t>How to optimize MySQL performance?</t>
+  </si>
+  <si>
+    <t>ways to terminate threads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the difference between a simple factory and an abstract factory?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tell  about a design pattern you are familiar with?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1317,7 +1374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,13 +1402,6 @@
       <color rgb="FF121212"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF262626"/>
-      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1394,7 +1444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1404,10 +1454,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1693,701 +1740,698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A4FD88-C9E0-4277-88F4-224FECA57A36}">
-  <dimension ref="A1:A391"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F99F7D-EC2D-49F4-85CD-19800BA5C7C0}">
+  <dimension ref="A1:A369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="66.25" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>219</v>
+      <c r="A1" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>403</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>237</v>
+      <c r="A41" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>149</v>
+      <c r="A43" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>252</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>253</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>255</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>256</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>257</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>258</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
-        <v>259</v>
+      <c r="A87" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>275</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>276</v>
+      <c r="A121" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="6" t="s">
-        <v>278</v>
+      <c r="A125" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>286</v>
+        <v>379</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>287</v>
+        <v>95</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>290</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>291</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>297</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>298</v>
+        <v>99</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>299</v>
+      <c r="A167" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="8" t="s">
-        <v>301</v>
+      <c r="A171" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>305</v>
+        <v>101</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>306</v>
+        <v>102</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>307</v>
+        <v>103</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>308</v>
+      <c r="A185" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="6" t="s">
-        <v>310</v>
+      <c r="A189" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>313</v>
+        <v>105</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>314</v>
+        <v>106</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>315</v>
+      <c r="A199" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="6" t="s">
-        <v>78</v>
+      <c r="A203" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>323</v>
+      <c r="A217" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="6" t="s">
-        <v>327</v>
+      <c r="A225" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>329</v>
+      <c r="A229" s="5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>332</v>
+      <c r="A235" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>334</v>
+        <v>109</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A243" s="6" t="s">
-        <v>98</v>
+      <c r="A243" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>343</v>
+        <v>110</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>344</v>
+        <v>111</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>345</v>
+        <v>112</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>346</v>
+        <v>113</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>347</v>
+        <v>114</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>348</v>
+      <c r="A269" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>349</v>
+        <v>115</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>350</v>
+        <v>26</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
@@ -2401,28 +2445,28 @@
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A279" s="6" t="s">
-        <v>181</v>
+      <c r="A279" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A283" s="6" t="s">
-        <v>108</v>
+      <c r="A283" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>354</v>
+        <v>27</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>355</v>
+        <v>136</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
@@ -2446,243 +2490,188 @@
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A297" s="6" t="s">
-        <v>115</v>
+      <c r="A297" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>362</v>
+        <v>116</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>363</v>
+      <c r="A305" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>368</v>
+      <c r="A315" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>370</v>
+        <v>117</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>371</v>
+        <v>118</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>372</v>
+        <v>119</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="6" t="s">
-        <v>128</v>
+      <c r="A325" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" s="6" t="s">
-        <v>133</v>
+      <c r="A335" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>381</v>
+        <v>138</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>382</v>
+        <v>137</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>384</v>
+        <v>120</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>385</v>
+      <c r="A353" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>386</v>
+        <v>121</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>387</v>
+        <v>122</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>388</v>
+        <v>123</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" t="s">
-        <v>389</v>
+      <c r="A361" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>390</v>
+        <v>124</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>391</v>
+        <v>125</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>392</v>
+      <c r="A367" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A373" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A375" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A377" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A381" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A383" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A385" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A389" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>401</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2685,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2715,19 +2704,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2"/>
     </row>
@@ -2786,15 +2775,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691E032-E296-4C02-A47A-8258FE5DCEEC}">
-  <dimension ref="A1:B196"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A196" sqref="A1:A196"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection sqref="A1:A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2804,995 +2794,940 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>188</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>168</v>
+      <c r="A21" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>149</v>
+      <c r="A22" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>186</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>184</v>
+      <c r="A43" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>30</v>
+      <c r="A44" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>34</v>
+      <c r="A45" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>35</v>
+      <c r="A46" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>51</v>
+      <c r="A63" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>54</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>55</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>56</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>57</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>58</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>63</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>189</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
-        <v>199</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>171</v>
+      <c r="A93" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>172</v>
+        <v>232</v>
+      </c>
+      <c r="B94" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
-        <v>74</v>
+      <c r="A95" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B96" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>198</v>
+      <c r="A100" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
-        <v>78</v>
+      <c r="A102" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>79</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>81</v>
+        <v>237</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>82</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>85</v>
+      <c r="A109" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>86</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>88</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
-        <v>89</v>
+      <c r="A113" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>91</v>
+      <c r="A115" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>94</v>
+      <c r="A118" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
-        <v>95</v>
+      <c r="A119" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="B120" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="s">
-        <v>98</v>
+      <c r="A122" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>99</v>
+        <v>217</v>
+      </c>
+      <c r="B123" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B125" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B128" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>102</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>176</v>
+      <c r="A135" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
-        <v>178</v>
+      <c r="A137" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="s">
-        <v>182</v>
+      <c r="A140" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="s">
-        <v>108</v>
+      <c r="A142" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="3" t="s">
-        <v>109</v>
+      <c r="A143" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>114</v>
+        <v>192</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="s">
-        <v>115</v>
+      <c r="A149" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
-        <v>119</v>
+      <c r="A153" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>120</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>124</v>
+      <c r="A158" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>215</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5" t="s">
-        <v>128</v>
+      <c r="A163" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="5" t="s">
-        <v>133</v>
+      <c r="A168" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
-        <v>143</v>
+      <c r="A181" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
-        <v>146</v>
+      <c r="A184" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="3" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/java-design-mode/interview.xlsx
+++ b/java-design-mode/interview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IdeaProjects\springboot3-learning\java-design-mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2982827-3AE9-4C96-AB52-49C57CC7D36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEB9A70-426F-4CE6-ADAF-64B730ED02BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25365" yWindow="0" windowWidth="25530" windowHeight="19605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="391">
   <si>
     <t>线程池的原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,10 +152,6 @@
   </si>
   <si>
     <t>方法区中的回收主要是什么内容？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java创建对象的四种方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,9 +345,6 @@
     <t>Explain method overloading and method overwriting</t>
   </si>
   <si>
-    <t>Four ways to create objects in java</t>
-  </si>
-  <si>
     <t>Difference between memory leak and memory overflow</t>
   </si>
   <si>
@@ -392,981 +385,1029 @@
   </si>
   <si>
     <t>51. What is ThreadLocal? What are the use cases?</t>
+  </si>
+  <si>
+    <t>How to interrupt a thread</t>
+  </si>
+  <si>
+    <t>Possible problems with interrupted threads</t>
+  </si>
+  <si>
+    <t>Benefits and problems of multithreading</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
+    <t>In addition to creating an object with new, what methods can you use to create an object</t>
+  </si>
+  <si>
+    <t>Is Java Reflection more efficient at creating objects or is new more efficient at creating objects?</t>
+  </si>
+  <si>
+    <t>abnormal</t>
+  </si>
+  <si>
+    <t>Design pattern</t>
+  </si>
+  <si>
+    <t>How AOP can be implemented</t>
+  </si>
+  <si>
+    <t>The propagation level of spring transactions</t>
+  </si>
+  <si>
+    <t>Nested transaction failure</t>
+  </si>
+  <si>
+    <t>What happens if the child transaction rolls back?</t>
+  </si>
+  <si>
+    <t>Spring MVC execution flow</t>
+  </si>
+  <si>
+    <t>Design patterns in Spring</t>
+  </si>
+  <si>
+    <t>Struts workflow</t>
+  </si>
+  <si>
+    <t>What are the differences between JPA and Hibernate?</t>
+  </si>
+  <si>
+    <t>Ever try? What's a view</t>
+  </si>
+  <si>
+    <t>What are the problems caused by concurrent transactions?</t>
+  </si>
+  <si>
+    <t>What is a stored procedure? With what to call</t>
+  </si>
+  <si>
+    <t>What is a row-level lock</t>
+  </si>
+  <si>
+    <t>Introduction to mongodb structure</t>
+  </si>
+  <si>
+    <t>Does MongoDB support stored procedures? If so, how</t>
+  </si>
+  <si>
+    <t>Why use MOngoDB?</t>
+  </si>
+  <si>
+    <t>Js Sets cookies to be shared under the second-level domain name and top-level domain name</t>
+  </si>
+  <si>
+    <t>Separating items from the front and back ends solves cross-domain problems</t>
+  </si>
+  <si>
+    <t>How to view the log?</t>
+  </si>
+  <si>
+    <t>Static关键字有什么作用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>介绍一下Java的四种引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否了解连接池，使用连接池有什么好处？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 中会存在内存泄漏吗，为什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map有什么特点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What does the Static keyword do?</t>
+  </si>
+  <si>
+    <t>Here are four references to Java</t>
+  </si>
+  <si>
+    <t>Can memory leaks exist in Java, and why</t>
+  </si>
+  <si>
+    <t>What are the features of Map</t>
+  </si>
+  <si>
+    <t>Are you familiar with connection pooling and what are the benefits of using connection pooling?</t>
+  </si>
+  <si>
+    <t>What are the methods for troubleshooting MySQL problems?</t>
+  </si>
+  <si>
+    <t>What about the optimistic lock and the pessimistic lock?</t>
+  </si>
+  <si>
+    <t>JDK 和 JRE 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个对象的 hashCode() 相同，则 equals() 也一定为 true，对吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String 属于基础的数据类型吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Java 中操作字符串都有哪些类？它们之间有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何做 MySQL 的性能优化？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MySQL 问题排查都有哪些手段？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下 JVM 的主要组成部分？及其作用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 JVM 运行时数据区？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下堆栈的区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下 JVM 调优的工具？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简述分代垃圾回收器是怎么工作的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String str="i"与 String str=new String("i")一样吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String 类的常用方法都有那些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 如何将字符串反转？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象类能使用 final 修饰吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口和抽象类有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Java 中 IO 流分为几种？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIO、NIO、AIO 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下乐观锁和悲观锁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 MySQL 的行锁和表锁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下数据库的事务隔离？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下 MySQL 常用的引擎？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么判断对象是否可以被回收？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java 中都有哪些引用类型？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 的内连接、左连接、右连接有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 索引是怎么实现的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么验证 MySQL 的索引是否满足需求？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何获取当前数据库版本？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下 ACID 是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列和栈是什么？有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是双亲委派模型？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下类装载的执行过程？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下 JVM 有哪些垃圾回收算法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么情况会导致 kafka 运行变慢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafka 同时设置了 7 天和 10G 清除数据，到第五天的时候消息达到了 10G，这个时候 kafka 将如何处理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collection 和 Collections 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 如何决定使用 HashMap 还是 TreeMap？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. HashMap 和 Hashtable 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是 ORM 框架？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 hibernate 中 getCurrentSession 和 openSession 的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate 对象有哪些状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 hibernate 的缓存机制？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用的 JVM 调优的参数你知道的有哪些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. 新生代垃圾回收器和老生代垃圾回收器都有哪些？有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细介绍一下 CMS 垃圾回收器？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 HashMap 的实现原理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 说一下 HashSet 的实现原理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate 有几种查询方式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate 中如何在控制台查看打印的 SQL 语句？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 hibernate 中使用 Integer 和 int 做映射有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库的三范式是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kafka 有几种数据保留的策略？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 kafka 集群需要注意什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解释一下什么是 aop？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Files的常用方法都有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ArrayList 和 LinkedList 的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何实现数组和 List 之间的转换？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ArrayList 和 Vector 的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Array 和 ArrayList 有何区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 Queue 中 poll()和 remove()有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 哪些集合类是线程安全的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> jpa 和 hibernate 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring boot 有哪些方式可以实现热部署？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring boot 配置文件有哪几种类型？它们有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>. spring boot 核心配置文件是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么要用 spring boot？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 spring mvc 运行流程？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 spring 的事务隔离？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> spring 事务实现方式有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring 自动装配 bean 有哪些方式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> spring 支持几种 bean 的作用域？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器 Iterator 是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring bean的生命周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> spring 有哪些主要模块？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring 常用的注入方式有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> spring 中的 bean 是线程安全的吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> final、finally、finalize 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> throw 和 throws 的区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> try-catch-finally 中，如果 catch 中 return 了，finally 还会执行吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> try-catch-finally 中哪个部分可以省略？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的异常类有哪些？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronized 和 Lock 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronized 和 volatile 的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 synchronized 底层实现原理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行和并发有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程和进程的区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 守护线程是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建线程有哪几种方式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 线程有哪些状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是反射？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么是 Java 序列化？什么情况下需要序列化？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态代理是什么？有哪些应用？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么实现动态代理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP 和 servlet 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 session 的工作原理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 如何避免 SQL 注入？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring mvc 和 struts 的区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果客户端禁止 cookie 能实现 session 还能用吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 JSP 的 4 种作用域？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP 有哪些内置对象？作用分别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> session 和 cookie 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchronized 和 ReentrantLock 区别是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 atomic 的原理？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么防止死锁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 什么是死锁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 多线程中 synchronized 锁升级的原理是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 Java 程序中怎么保证多线程的运行安全？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 线程池中 submit() 和 execute() 方法有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程池都有哪些状态？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建线程池有哪几种方式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> sleep() 和 wait() 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> notify()和 notifyAll()有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程的 run() 和 start() 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说一下 runnable 和 callable 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么确保一个集合不能被修改？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iterator 和 ListIterator 有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iterator 怎么使用？有什么特点？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the difference between JDK and JRE?</t>
+  </si>
+  <si>
+    <t>If two objects have the same hashCode(), equals() must also be true, right?</t>
+  </si>
+  <si>
+    <t>What does final do in Java?</t>
+  </si>
+  <si>
+    <t>What is Math.round (-1.5) in Java?</t>
+  </si>
+  <si>
+    <t>Is String an underlying data type?</t>
+  </si>
+  <si>
+    <t>What are the classes of action strings in Java? What's the difference between them?</t>
+  </si>
+  <si>
+    <t>How to invert a string?</t>
+  </si>
+  <si>
+    <t>What are the common methods of the String class?</t>
+  </si>
+  <si>
+    <t>Can abstract classes use final modification?</t>
+  </si>
+  <si>
+    <t>What's the difference between interfaces and abstract classes?</t>
+  </si>
+  <si>
+    <t>How many types of IO streams are there in Java?</t>
+  </si>
+  <si>
+    <t>What is the difference between BIO, NIO and AIO?</t>
+  </si>
+  <si>
+    <t>What are the common methods of Files?</t>
+  </si>
+  <si>
+    <t>What are the main components of the JVM? And its role?</t>
+  </si>
+  <si>
+    <t>What about the JVM runtime data area?</t>
+  </si>
+  <si>
+    <t>What's the difference between stacks?</t>
+  </si>
+  <si>
+    <t>What are queues and stacks? What's the difference?</t>
+  </si>
+  <si>
+    <t>What is the Parent Delegation model?</t>
+  </si>
+  <si>
+    <t>What about the execution of class loading?</t>
+  </si>
+  <si>
+    <t>How do I know if an object can be reclaimed?</t>
+  </si>
+  <si>
+    <t>What are the reference types in Java?</t>
+  </si>
+  <si>
+    <t>What garbage collection algorithms do the JVM have?</t>
+  </si>
+  <si>
+    <t>What about the CMS garbage collector?</t>
+  </si>
+  <si>
+    <t>What are the new generation garbage recyclers and the old generation garbage recyclers? What's the difference?</t>
+  </si>
+  <si>
+    <t>How does a generational garbage collector work?</t>
+  </si>
+  <si>
+    <t>What about JVM tuning tools?</t>
+  </si>
+  <si>
+    <t>What do you know about common JVM tuning parameters</t>
+  </si>
+  <si>
+    <t>What's the difference between Collections and collections?</t>
+  </si>
+  <si>
+    <t>What is the difference between HashMap and Hashtable?</t>
+  </si>
+  <si>
+    <t>How do I decide whether to use HashMap or TreeMap?</t>
+  </si>
+  <si>
+    <t>What about the implementation of HashMap?</t>
+  </si>
+  <si>
+    <t>What about the implementation of HashSet?</t>
+  </si>
+  <si>
+    <t>What is the difference between ArrayList and LinkedList?</t>
+  </si>
+  <si>
+    <t>How to convert between array and List?</t>
+  </si>
+  <si>
+    <t>What is the difference between ArrayList and Vector?</t>
+  </si>
+  <si>
+    <t>What is the difference between Array and ArrayList?</t>
+  </si>
+  <si>
+    <t>What is the difference between poll() and remove() in Queue?</t>
+  </si>
+  <si>
+    <t>Which collection classes are thread-safe?</t>
+  </si>
+  <si>
+    <t>What is an Iterator?</t>
+  </si>
+  <si>
+    <t>How to use Iterator? What are its characteristics?</t>
+  </si>
+  <si>
+    <t>What's the difference between Iterator and ListIterator?</t>
+  </si>
+  <si>
+    <t>How do you ensure that a collection cannot be modified?</t>
+  </si>
+  <si>
+    <t>What is the difference between parallelism and concurrency?</t>
+  </si>
+  <si>
+    <t>What's the difference between threads and processes?</t>
+  </si>
+  <si>
+    <t>What is a daemon thread?</t>
+  </si>
+  <si>
+    <t>What are the ways to create threads?</t>
+  </si>
+  <si>
+    <t>What's the difference between a runnable and a callable?</t>
+  </si>
+  <si>
+    <t>What are the states of the thread?</t>
+  </si>
+  <si>
+    <t>What's the difference between sleep() and wait()?</t>
+  </si>
+  <si>
+    <t>What is the difference between notify() and notifyAll()?</t>
+  </si>
+  <si>
+    <t>What is the difference between run() and start() for a thread?</t>
+  </si>
+  <si>
+    <t>What are the ways to create a thread pool?</t>
+  </si>
+  <si>
+    <t>What are the states of thread pools?</t>
+  </si>
+  <si>
+    <t>What is the difference between the submit() and execute() methods in the thread pool?</t>
+  </si>
+  <si>
+    <t>How to ensure the safety of multithreading in Java program?</t>
+  </si>
+  <si>
+    <t>What is the principle of synchronized lock escalation in multithreading?</t>
+  </si>
+  <si>
+    <t>What is a deadlock?</t>
+  </si>
+  <si>
+    <t>How do I prevent deadlocks?</t>
+  </si>
+  <si>
+    <t>What about the underlying implementation of synchronized?</t>
+  </si>
+  <si>
+    <t>What's the difference between synchronized and volatile?</t>
+  </si>
+  <si>
+    <t>What's the difference between synchronized and Lock?</t>
+  </si>
+  <si>
+    <t>What is the difference between synchronized and ReentrantLock?</t>
+  </si>
+  <si>
+    <t>What's atomic about?</t>
+  </si>
+  <si>
+    <t>What is reflection?</t>
+  </si>
+  <si>
+    <t>What is Java Serialization? When is serialization necessary?</t>
+  </si>
+  <si>
+    <t>What is dynamic proxy? What are the applications?</t>
+  </si>
+  <si>
+    <t>How to implement dynamic proxy?</t>
+  </si>
+  <si>
+    <t>What is the difference between JSP and servlet?</t>
+  </si>
+  <si>
+    <t>What are the built-in objects in JSP? What are the roles?</t>
+  </si>
+  <si>
+    <t>What about the four scopes of JSP?</t>
+  </si>
+  <si>
+    <t>What is the difference between a session and a cookie?</t>
+  </si>
+  <si>
+    <t>How does a session work?</t>
+  </si>
+  <si>
+    <t>Can the session be implemented if the client disables cookies?</t>
+  </si>
+  <si>
+    <t>What is the difference between spring mvc and struts?</t>
+  </si>
+  <si>
+    <t>How to avoid SQL injection?</t>
+  </si>
+  <si>
+    <t>What's the difference between a throw and a throws?</t>
+  </si>
+  <si>
+    <t>What is the difference between final, finally and finalize?</t>
+  </si>
+  <si>
+    <t>What part of try-catch-finally can be omitted?</t>
+  </si>
+  <si>
+    <t>In try-catch-finally, if there is a return in the catch, will finally be executed?</t>
+  </si>
+  <si>
+    <t>What are the common exception classes?</t>
+  </si>
+  <si>
+    <t>Explain what aop is?</t>
+  </si>
+  <si>
+    <t>The life cycle of the spring bean</t>
+  </si>
+  <si>
+    <t>What are the main modules in spring?</t>
+  </si>
+  <si>
+    <t>What are the common injection methods in spring?</t>
+  </si>
+  <si>
+    <t>Are beans in spring thread-safe?</t>
+  </si>
+  <si>
+    <t>How many bean scopes does spring support?</t>
+  </si>
+  <si>
+    <t>What are the ways spring can automatically assemble beans?</t>
+  </si>
+  <si>
+    <t>What are the ways spring transactions are implemented?</t>
+  </si>
+  <si>
+    <t>What about spring's transaction isolation?</t>
+  </si>
+  <si>
+    <t>What about the spring mvc running flow?</t>
+  </si>
+  <si>
+    <t>Why use spring boot?</t>
+  </si>
+  <si>
+    <t>What is the.spring boot core configuration file?</t>
+  </si>
+  <si>
+    <t>What are the types of spring boot configuration files? What's the difference?</t>
+  </si>
+  <si>
+    <t>What are the ways spring boot can implement hot deployment?</t>
+  </si>
+  <si>
+    <t>What is the difference between jpa and hibernate?</t>
+  </si>
+  <si>
+    <t>What is ORM Framework?</t>
+  </si>
+  <si>
+    <t>How to view printed SQL statements in the console in hibernate?</t>
+  </si>
+  <si>
+    <t>How many query ways does hibernate have?</t>
+  </si>
+  <si>
+    <t>What is the difference between using Integer and int for mapping in hibernate?</t>
+  </si>
+  <si>
+    <t>What about hibernate's caching mechanism?</t>
+  </si>
+  <si>
+    <t>What are the states of hibernate objects?</t>
+  </si>
+  <si>
+    <t>What is the difference between getCurrentSession and openSession in hibernate?</t>
+  </si>
+  <si>
+    <t>How many data retention strategies does kafka have?</t>
+  </si>
+  <si>
+    <t>kafka sets both 7 days and 10 gigabytes to clear data, and when the message reaches 10 gigabytes on the fifth day, what will kafka do?</t>
+  </si>
+  <si>
+    <t>What causes kafka to run slowly?</t>
+  </si>
+  <si>
+    <t>What should I pay attention to when using a kafka cluster?</t>
+  </si>
+  <si>
+    <t>How do I get the current database version?</t>
+  </si>
+  <si>
+    <t>What is ACID?</t>
+  </si>
+  <si>
+    <t>What is the difference between MySQL internal join, left join, and right join?</t>
+  </si>
+  <si>
+    <t>How is MySQL index implemented?</t>
+  </si>
+  <si>
+    <t>How to verify that the MySQL index meets the requirements?</t>
+  </si>
+  <si>
+    <t>What about database transaction isolation?</t>
+  </si>
+  <si>
+    <t>What is the common engine used by MySQL?</t>
+  </si>
+  <si>
+    <t>What about MySQL row locks and table locks?</t>
+  </si>
+  <si>
+    <t>How to optimize MySQL performance?</t>
+  </si>
+  <si>
+    <t>ways to terminate threads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What is the difference between a simple factory and an abstract factory?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tell  about a design pattern you are familiar with?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> JDK：java development kit，JRE：java runtime environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态变量被所有实例所共享，不会依赖于对象，静态代码块中的代码在整个类加载的时候只会执行一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 被fifinal修饰的类不可以被继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final在java中的作用，有哪些用法?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回的就是根据对象的内存地址换算出的一个值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hashcode的作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java创建对象几种方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new创建新对象， 通过反射机制，采用clone机制，通过序列化机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new Creates a new object, using the reflection mechanism, using the clone mechanism, using the serialization mechanism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static variables are shared by all instances and do not depend on objects, and the code in a static code block is executed only once during the entire class load</t>
+  </si>
+  <si>
+    <t>java creates objects in several ways</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Talk about how you use the synchronized keyword. Did you use the synchronized keyword in your project
 The three main ways to use it.</t>
-  </si>
-  <si>
-    <t>How to interrupt a thread</t>
-  </si>
-  <si>
-    <t>Possible problems with interrupted threads</t>
-  </si>
-  <si>
-    <t>Benefits and problems of multithreading</t>
-  </si>
-  <si>
-    <t>reflect</t>
-  </si>
-  <si>
-    <t>In addition to creating an object with new, what methods can you use to create an object</t>
-  </si>
-  <si>
-    <t>Is Java Reflection more efficient at creating objects or is new more efficient at creating objects?</t>
-  </si>
-  <si>
-    <t>abnormal</t>
-  </si>
-  <si>
-    <t>Design pattern</t>
-  </si>
-  <si>
-    <t>How AOP can be implemented</t>
-  </si>
-  <si>
-    <t>The propagation level of spring transactions</t>
-  </si>
-  <si>
-    <t>Nested transaction failure</t>
-  </si>
-  <si>
-    <t>What happens if the child transaction rolls back?</t>
-  </si>
-  <si>
-    <t>Spring MVC execution flow</t>
-  </si>
-  <si>
-    <t>Design patterns in Spring</t>
-  </si>
-  <si>
-    <t>Struts workflow</t>
-  </si>
-  <si>
-    <t>What are the differences between JPA and Hibernate?</t>
-  </si>
-  <si>
-    <t>Ever try? What's a view</t>
-  </si>
-  <si>
-    <t>What are the problems caused by concurrent transactions?</t>
-  </si>
-  <si>
-    <t>What is a stored procedure? With what to call</t>
-  </si>
-  <si>
-    <t>What is a row-level lock</t>
-  </si>
-  <si>
-    <t>Introduction to mongodb structure</t>
-  </si>
-  <si>
-    <t>Does MongoDB support stored procedures? If so, how</t>
-  </si>
-  <si>
-    <t>Why use MOngoDB?</t>
-  </si>
-  <si>
-    <t>Js Sets cookies to be shared under the second-level domain name and top-level domain name</t>
-  </si>
-  <si>
-    <t>Separating items from the front and back ends solves cross-domain problems</t>
-  </si>
-  <si>
-    <t>How to view the log?</t>
-  </si>
-  <si>
-    <t>Static关键字有什么作用？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>介绍一下Java的四种引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否了解连接池，使用连接池有什么好处？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java 中会存在内存泄漏吗，为什么</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map有什么特点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What does the Static keyword do?</t>
-  </si>
-  <si>
-    <t>Here are four references to Java</t>
-  </si>
-  <si>
-    <t>Can memory leaks exist in Java, and why</t>
-  </si>
-  <si>
-    <t>What are the features of Map</t>
-  </si>
-  <si>
-    <t>Are you familiar with connection pooling and what are the benefits of using connection pooling?</t>
-  </si>
-  <si>
-    <t>What are the methods for troubleshooting MySQL problems?</t>
-  </si>
-  <si>
-    <t>What about the optimistic lock and the pessimistic lock?</t>
-  </si>
-  <si>
-    <t>JDK 和 JRE 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个对象的 hashCode() 相同，则 equals() 也一定为 true，对吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>final 在 Java 中有什么作用？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java 中的 Math. round(-1. 5) 等于多少？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String 属于基础的数据类型吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Java 中操作字符串都有哪些类？它们之间有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何做 MySQL 的性能优化？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> MySQL 问题排查都有哪些手段？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 说一下 JVM 的主要组成部分？及其作用？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下 JVM 运行时数据区？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下堆栈的区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 说一下 JVM 调优的工具？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简述分代垃圾回收器是怎么工作的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String str="i"与 String str=new String("i")一样吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String 类的常用方法都有那些？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 如何将字符串反转？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽象类能使用 final 修饰吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口和抽象类有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Java 中 IO 流分为几种？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIO、NIO、AIO 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下乐观锁和悲观锁？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下 MySQL 的行锁和表锁？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 说一下数据库的事务隔离？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 说一下 MySQL 常用的引擎？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么判断对象是否可以被回收？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java 中都有哪些引用类型？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float 和 double 的区别是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL 的内连接、左连接、右连接有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL 索引是怎么实现的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么验证 MySQL 的索引是否满足需求？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何获取当前数据库版本？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 说一下 ACID 是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> char 和 varchar 的区别是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>队列和栈是什么？有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是双亲委派模型？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下类装载的执行过程？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 说一下 JVM 有哪些垃圾回收算法？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么情况会导致 kafka 运行变慢？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kafka 同时设置了 7 天和 10G 清除数据，到第五天的时候消息达到了 10G，这个时候 kafka 将如何处理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Collection 和 Collections 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 如何决定使用 HashMap 还是 TreeMap？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>. HashMap 和 Hashtable 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是 ORM 框架？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在 hibernate 中 getCurrentSession 和 openSession 的区别是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hibernate 对象有哪些状态？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下 hibernate 的缓存机制？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常用的 JVM 调优的参数你知道的有哪些</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>. 新生代垃圾回收器和老生代垃圾回收器都有哪些？有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细介绍一下 CMS 垃圾回收器？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下 HashMap 的实现原理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 说一下 HashSet 的实现原理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hibernate 有几种查询方式？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hibernate 中如何在控制台查看打印的 SQL 语句？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在 hibernate 中使用 Integer 和 int 做映射有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库的三范式是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kafka 有几种数据保留的策略？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用 kafka 集群需要注意什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解释一下什么是 aop？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Files的常用方法都有哪些？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ArrayList 和 LinkedList 的区别是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何实现数组和 List 之间的转换？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ArrayList 和 Vector 的区别是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Array 和 ArrayList 有何区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在 Queue 中 poll()和 remove()有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 哪些集合类是线程安全的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> jpa 和 hibernate 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring boot 有哪些方式可以实现热部署？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring boot 配置文件有哪几种类型？它们有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>. spring boot 核心配置文件是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为什么要用 spring boot？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下 spring mvc 运行流程？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下 spring 的事务隔离？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> spring 事务实现方式有哪些？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring 自动装配 bean 有哪些方式？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> spring 支持几种 bean 的作用域？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迭代器 Iterator 是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring bean的生命周期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> spring 有哪些主要模块？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring 常用的注入方式有哪些？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> spring 中的 bean 是线程安全的吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> final、finally、finalize 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> throw 和 throws 的区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> try-catch-finally 中，如果 catch 中 return 了，finally 还会执行吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> try-catch-finally 中哪个部分可以省略？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常见的异常类有哪些？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>synchronized 和 Lock 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>synchronized 和 volatile 的区别是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下 synchronized 底层实现原理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并行和并发有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程和进程的区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 守护线程是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建线程有哪几种方式？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 线程有哪些状态？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是反射？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什么是 Java 序列化？什么情况下需要序列化？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态代理是什么？有哪些应用？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么实现动态代理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP 和 servlet 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下 session 的工作原理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 如何避免 SQL 注入？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring mvc 和 struts 的区别是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果客户端禁止 cookie 能实现 session 还能用吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下 JSP 的 4 种作用域？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP 有哪些内置对象？作用分别是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> session 和 cookie 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>synchronized 和 ReentrantLock 区别是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下 atomic 的原理？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么防止死锁？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 什么是死锁？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 多线程中 synchronized 锁升级的原理是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在 Java 程序中怎么保证多线程的运行安全？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 线程池中 submit() 和 execute() 方法有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程池都有哪些状态？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建线程池有哪几种方式？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> sleep() 和 wait() 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> notify()和 notifyAll()有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程的 run() 和 start() 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说一下 runnable 和 callable 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么确保一个集合不能被修改？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iterator 和 ListIterator 有什么区别？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iterator 怎么使用？有什么特点？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the difference between JDK and JRE?</t>
-  </si>
-  <si>
-    <t>If two objects have the same hashCode(), equals() must also be true, right?</t>
-  </si>
-  <si>
-    <t>What does final do in Java?</t>
-  </si>
-  <si>
-    <t>What is Math.round (-1.5) in Java?</t>
-  </si>
-  <si>
-    <t>Is String an underlying data type?</t>
-  </si>
-  <si>
-    <t>What are the classes of action strings in Java? What's the difference between them?</t>
-  </si>
-  <si>
-    <t>Is String str="i" the same as String str=new String("i")?</t>
-  </si>
-  <si>
-    <t>How to invert a string?</t>
-  </si>
-  <si>
-    <t>What are the common methods of the String class?</t>
-  </si>
-  <si>
-    <t>Can abstract classes use final modification?</t>
-  </si>
-  <si>
-    <t>What's the difference between interfaces and abstract classes?</t>
-  </si>
-  <si>
-    <t>How many types of IO streams are there in Java?</t>
-  </si>
-  <si>
-    <t>What is the difference between BIO, NIO and AIO?</t>
-  </si>
-  <si>
-    <t>What are the common methods of Files?</t>
-  </si>
-  <si>
-    <t>What are the main components of the JVM? And its role?</t>
-  </si>
-  <si>
-    <t>What about the JVM runtime data area?</t>
-  </si>
-  <si>
-    <t>What's the difference between stacks?</t>
-  </si>
-  <si>
-    <t>What are queues and stacks? What's the difference?</t>
-  </si>
-  <si>
-    <t>What is the Parent Delegation model?</t>
-  </si>
-  <si>
-    <t>What about the execution of class loading?</t>
-  </si>
-  <si>
-    <t>How do I know if an object can be reclaimed?</t>
-  </si>
-  <si>
-    <t>What are the reference types in Java?</t>
-  </si>
-  <si>
-    <t>What garbage collection algorithms do the JVM have?</t>
-  </si>
-  <si>
-    <t>What about the CMS garbage collector?</t>
-  </si>
-  <si>
-    <t>What are the new generation garbage recyclers and the old generation garbage recyclers? What's the difference?</t>
-  </si>
-  <si>
-    <t>How does a generational garbage collector work?</t>
-  </si>
-  <si>
-    <t>What about JVM tuning tools?</t>
-  </si>
-  <si>
-    <t>What do you know about common JVM tuning parameters</t>
-  </si>
-  <si>
-    <t>What's the difference between Collections and collections?</t>
-  </si>
-  <si>
-    <t>What is the difference between HashMap and Hashtable?</t>
-  </si>
-  <si>
-    <t>How do I decide whether to use HashMap or TreeMap?</t>
-  </si>
-  <si>
-    <t>What about the implementation of HashMap?</t>
-  </si>
-  <si>
-    <t>What about the implementation of HashSet?</t>
-  </si>
-  <si>
-    <t>What is the difference between ArrayList and LinkedList?</t>
-  </si>
-  <si>
-    <t>How to convert between array and List?</t>
-  </si>
-  <si>
-    <t>What is the difference between ArrayList and Vector?</t>
-  </si>
-  <si>
-    <t>What is the difference between Array and ArrayList?</t>
-  </si>
-  <si>
-    <t>What is the difference between poll() and remove() in Queue?</t>
-  </si>
-  <si>
-    <t>Which collection classes are thread-safe?</t>
-  </si>
-  <si>
-    <t>What is an Iterator?</t>
-  </si>
-  <si>
-    <t>How to use Iterator? What are its characteristics?</t>
-  </si>
-  <si>
-    <t>What's the difference between Iterator and ListIterator?</t>
-  </si>
-  <si>
-    <t>How do you ensure that a collection cannot be modified?</t>
-  </si>
-  <si>
-    <t>What is the difference between parallelism and concurrency?</t>
-  </si>
-  <si>
-    <t>What's the difference between threads and processes?</t>
-  </si>
-  <si>
-    <t>What is a daemon thread?</t>
-  </si>
-  <si>
-    <t>What are the ways to create threads?</t>
-  </si>
-  <si>
-    <t>What's the difference between a runnable and a callable?</t>
-  </si>
-  <si>
-    <t>What are the states of the thread?</t>
-  </si>
-  <si>
-    <t>What's the difference between sleep() and wait()?</t>
-  </si>
-  <si>
-    <t>What is the difference between notify() and notifyAll()?</t>
-  </si>
-  <si>
-    <t>What is the difference between run() and start() for a thread?</t>
-  </si>
-  <si>
-    <t>What are the ways to create a thread pool?</t>
-  </si>
-  <si>
-    <t>What are the states of thread pools?</t>
-  </si>
-  <si>
-    <t>What is the difference between the submit() and execute() methods in the thread pool?</t>
-  </si>
-  <si>
-    <t>How to ensure the safety of multithreading in Java program?</t>
-  </si>
-  <si>
-    <t>What is the principle of synchronized lock escalation in multithreading?</t>
-  </si>
-  <si>
-    <t>What is a deadlock?</t>
-  </si>
-  <si>
-    <t>How do I prevent deadlocks?</t>
-  </si>
-  <si>
-    <t>What about the underlying implementation of synchronized?</t>
-  </si>
-  <si>
-    <t>What's the difference between synchronized and volatile?</t>
-  </si>
-  <si>
-    <t>What's the difference between synchronized and Lock?</t>
-  </si>
-  <si>
-    <t>What is the difference between synchronized and ReentrantLock?</t>
-  </si>
-  <si>
-    <t>What's atomic about?</t>
-  </si>
-  <si>
-    <t>What is reflection?</t>
-  </si>
-  <si>
-    <t>What is Java Serialization? When is serialization necessary?</t>
-  </si>
-  <si>
-    <t>What is dynamic proxy? What are the applications?</t>
-  </si>
-  <si>
-    <t>How to implement dynamic proxy?</t>
-  </si>
-  <si>
-    <t>What is the difference between JSP and servlet?</t>
-  </si>
-  <si>
-    <t>What are the built-in objects in JSP? What are the roles?</t>
-  </si>
-  <si>
-    <t>What about the four scopes of JSP?</t>
-  </si>
-  <si>
-    <t>What is the difference between a session and a cookie?</t>
-  </si>
-  <si>
-    <t>How does a session work?</t>
-  </si>
-  <si>
-    <t>Can the session be implemented if the client disables cookies?</t>
-  </si>
-  <si>
-    <t>What is the difference between spring mvc and struts?</t>
-  </si>
-  <si>
-    <t>How to avoid SQL injection?</t>
-  </si>
-  <si>
-    <t>What's the difference between a throw and a throws?</t>
-  </si>
-  <si>
-    <t>What is the difference between final, finally and finalize?</t>
-  </si>
-  <si>
-    <t>What part of try-catch-finally can be omitted?</t>
-  </si>
-  <si>
-    <t>In try-catch-finally, if there is a return in the catch, will finally be executed?</t>
-  </si>
-  <si>
-    <t>What are the common exception classes?</t>
-  </si>
-  <si>
-    <t>Explain what aop is?</t>
-  </si>
-  <si>
-    <t>The life cycle of the spring bean</t>
-  </si>
-  <si>
-    <t>What are the main modules in spring?</t>
-  </si>
-  <si>
-    <t>What are the common injection methods in spring?</t>
-  </si>
-  <si>
-    <t>Are beans in spring thread-safe?</t>
-  </si>
-  <si>
-    <t>How many bean scopes does spring support?</t>
-  </si>
-  <si>
-    <t>What are the ways spring can automatically assemble beans?</t>
-  </si>
-  <si>
-    <t>What are the ways spring transactions are implemented?</t>
-  </si>
-  <si>
-    <t>What about spring's transaction isolation?</t>
-  </si>
-  <si>
-    <t>What about the spring mvc running flow?</t>
-  </si>
-  <si>
-    <t>Why use spring boot?</t>
-  </si>
-  <si>
-    <t>What is the.spring boot core configuration file?</t>
-  </si>
-  <si>
-    <t>What are the types of spring boot configuration files? What's the difference?</t>
-  </si>
-  <si>
-    <t>What are the ways spring boot can implement hot deployment?</t>
-  </si>
-  <si>
-    <t>What is the difference between jpa and hibernate?</t>
-  </si>
-  <si>
-    <t>What is ORM Framework?</t>
-  </si>
-  <si>
-    <t>How to view printed SQL statements in the console in hibernate?</t>
-  </si>
-  <si>
-    <t>How many query ways does hibernate have?</t>
-  </si>
-  <si>
-    <t>What is the difference between using Integer and int for mapping in hibernate?</t>
-  </si>
-  <si>
-    <t>What about hibernate's caching mechanism?</t>
-  </si>
-  <si>
-    <t>What are the states of hibernate objects?</t>
-  </si>
-  <si>
-    <t>What is the difference between getCurrentSession and openSession in hibernate?</t>
-  </si>
-  <si>
-    <t>How many data retention strategies does kafka have?</t>
-  </si>
-  <si>
-    <t>kafka sets both 7 days and 10 gigabytes to clear data, and when the message reaches 10 gigabytes on the fifth day, what will kafka do?</t>
-  </si>
-  <si>
-    <t>What causes kafka to run slowly?</t>
-  </si>
-  <si>
-    <t>What should I pay attention to when using a kafka cluster?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The runtime dynamically obtains information about the class, and can invoke methods of the class, create objects, and so on at runtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constructor injection, setter injection, interface injection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discard policy for thread pools</t>
+  </si>
+  <si>
+    <t>What is restful style?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make your application reuse the same database connection instead of creating a new one each time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hibernate，iBatis，JPA
+ JDO，OJB </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>What are the three normal forms of a database?</t>
-  </si>
-  <si>
-    <t>How do I get the current database version?</t>
-  </si>
-  <si>
-    <t>What is ACID?</t>
-  </si>
-  <si>
-    <t>What is the difference between char and varchar?</t>
-  </si>
-  <si>
-    <t>What's the difference between a float and a double?</t>
-  </si>
-  <si>
-    <t>What is the difference between MySQL internal join, left join, and right join?</t>
-  </si>
-  <si>
-    <t>How is MySQL index implemented?</t>
-  </si>
-  <si>
-    <t>How to verify that the MySQL index meets the requirements?</t>
-  </si>
-  <si>
-    <t>What about database transaction isolation?</t>
-  </si>
-  <si>
-    <t>What is the common engine used by MySQL?</t>
-  </si>
-  <si>
-    <t>What about MySQL row locks and table locks?</t>
-  </si>
-  <si>
-    <t>How to optimize MySQL performance?</t>
-  </si>
-  <si>
-    <t>ways to terminate threads</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>What is the difference between a simple factory and an abstract factory?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tell  about a design pattern you are familiar with?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tail，head，cat,more,less</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1741,67 +1782,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F99F7D-EC2D-49F4-85CD-19800BA5C7C0}">
-  <dimension ref="A1:A369"/>
+  <dimension ref="A1:B367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="A343" sqref="A343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="84.375" customWidth="1"/>
+    <col min="2" max="2" width="109.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>268</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
@@ -1811,437 +1862,443 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>270</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>287</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>134</v>
+      <c r="A83" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>290</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>302</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>93</v>
+      <c r="A119" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="s">
-        <v>94</v>
+      <c r="A121" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>379</v>
+        <v>93</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>95</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>313</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>96</v>
+        <v>385</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
-        <v>100</v>
+        <v>382</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="B187" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
@@ -2251,87 +2308,87 @@
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
@@ -2341,337 +2398,344 @@
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="B245" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
+      <c r="A273" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="B289" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>116</v>
+        <v>354</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A305" s="5" t="s">
+      <c r="A305" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="5" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A315" s="5" t="s">
+      <c r="A315" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="5" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>117</v>
+        <v>389</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>368</v>
+        <v>116</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>377</v>
+        <v>135</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>137</v>
+        <v>367</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>378</v>
+        <v>117</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
+      <c r="A351" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A369" t="s">
-        <v>126</v>
+      <c r="B367" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2749,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2781,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691E032-E296-4C02-A47A-8258FE5DCEEC}">
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
     <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection sqref="A1:A185"/>
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2800,175 +2864,190 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>141</v>
+        <v>376</v>
+      </c>
+      <c r="B5" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>142</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="B20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
@@ -2978,7 +3057,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
@@ -2998,12 +3077,12 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
@@ -3013,87 +3092,87 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
@@ -3103,107 +3182,107 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -3213,47 +3292,47 @@
     </row>
     <row r="84" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -3263,35 +3342,35 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
@@ -3301,42 +3380,42 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
@@ -3346,27 +3425,27 @@
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -3391,98 +3470,98 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B120" t="s">
         <v>76</v>
-      </c>
-      <c r="B120" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
@@ -3492,27 +3571,27 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
@@ -3522,47 +3601,47 @@
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
@@ -3572,22 +3651,22 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
@@ -3597,141 +3676,138 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>146</v>
+        <v>68</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="A175" s="3"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
+      <c r="A176" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="5" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="4" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
-        <v>81</v>
+      <c r="B184" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/java-design-mode/interview.xlsx
+++ b/java-design-mode/interview.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IdeaProjects\springboot3-learning\java-design-mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEB9A70-426F-4CE6-ADAF-64B730ED02BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA33D6C7-7B84-4CDB-9037-E5A1EC1C3060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25365" yWindow="0" windowWidth="25530" windowHeight="19605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25365" yWindow="0" windowWidth="25530" windowHeight="19605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,71 +26,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="391">
-  <si>
-    <t>线程池的原理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程池的抛弃策略</t>
-  </si>
-  <si>
-    <t>happens-before</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JVM内存模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java的三大特性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装，继承，多态</t>
-  </si>
-  <si>
-    <t>springboot的启动过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>restful风格是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用过什么设计模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOP的实现，jdk动态代理的实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线程池的核心参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring如何解决循环依赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="375">
   <si>
     <t>Java基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>java 集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口和抽象类的区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java创建对象有几种方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java的反射是什么，什么场景用过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1290,9 +1231,6 @@
   </si>
   <si>
     <t>What should I pay attention to when using a kafka cluster?</t>
-  </si>
-  <si>
-    <t>How do I get the current database version?</t>
   </si>
   <si>
     <t>What is ACID?</t>
@@ -1415,7 +1353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1433,14 +1371,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF262626"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF121212"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1485,17 +1415,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1782,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F99F7D-EC2D-49F4-85CD-19800BA5C7C0}">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="A343" sqref="A343"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="A327" sqref="A327:XFD327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1795,947 +1723,942 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>81</v>
+      <c r="A1" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B37" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>30</v>
+      <c r="A39" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>90</v>
+      <c r="A83" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
-        <v>92</v>
+      <c r="A119" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="7" t="s">
-        <v>382</v>
+      <c r="A167" s="5" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="5" t="s">
-        <v>101</v>
+      <c r="A185" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B187" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="5" t="s">
-        <v>20</v>
+      <c r="A199" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="5" t="s">
-        <v>104</v>
+      <c r="A217" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A229" s="5" t="s">
-        <v>105</v>
+      <c r="A229" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A235" s="5" t="s">
-        <v>25</v>
+      <c r="A235" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B245" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" s="5" t="s">
-        <v>45</v>
+      <c r="A269" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" s="5" t="s">
-        <v>26</v>
+      <c r="A273" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A287" s="5" t="s">
-        <v>27</v>
+      <c r="A287" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B289" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>348</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>388</v>
+        <v>333</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A307" s="5" t="s">
-        <v>28</v>
+      <c r="A307" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A317" s="5" t="s">
-        <v>29</v>
+      <c r="A317" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>366</v>
+        <v>120</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>134</v>
+        <v>351</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>367</v>
+        <v>102</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>117</v>
+      <c r="A349" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" s="5" t="s">
-        <v>69</v>
+      <c r="A351" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>120</v>
+      <c r="A357" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" s="5" t="s">
-        <v>55</v>
+      <c r="A359" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>122</v>
+      <c r="A363" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>123</v>
-      </c>
-      <c r="B367" t="s">
-        <v>390</v>
+      <c r="A365" t="s">
+        <v>108</v>
+      </c>
+      <c r="B365" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2745,110 +2668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="44.5" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691E032-E296-4C02-A47A-8258FE5DCEEC}">
   <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2858,951 +2682,951 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B120" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B123" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B5" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B184" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="B20" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B94" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B120" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B123" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="3"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B184" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>

--- a/java-design-mode/interview.xlsx
+++ b/java-design-mode/interview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IdeaProjects\springboot3-learning\java-design-mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CF028C-04FC-43F9-A10E-A1F1739153A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954E1A9C-71DA-4C37-9F2C-8EC2477ED054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15525" yWindow="0" windowWidth="35370" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -591,9 +591,6 @@
     <t>What are the common injection methods in spring?</t>
   </si>
   <si>
-    <t>Why use spring boot?</t>
-  </si>
-  <si>
     <t>What is the difference between using Integer and int for mapping in hibernate?</t>
   </si>
   <si>
@@ -1604,12 +1601,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Struts Workflow</t>
-  </si>
-  <si>
-    <t>What are the ways to run Spring Boot?</t>
-  </si>
-  <si>
-    <t>Spring Boot Configuration Loading Order</t>
   </si>
   <si>
     <t>Spring Boot's Core Configuration Files</t>
@@ -1995,6 +1986,18 @@
   </si>
   <si>
     <t>Explain method overloading and method rewriting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Boot Configuration Loading Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What are the ways to run Spring Boot?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why use spring boot?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2375,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC6FBBB-F1B5-4500-BED7-1F56F5D931CD}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2387,7 +2390,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2395,131 +2398,131 @@
         <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B15" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B19" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -2529,188 +2532,188 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B23" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B25" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B28" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B43" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B47" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -2720,215 +2723,215 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B77" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B80" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B82" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -2938,90 +2941,90 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B96" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B97" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B101" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B102" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -3031,10 +3034,10 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B105" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -3042,7 +3045,7 @@
         <v>142</v>
       </c>
       <c r="B106" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -3052,22 +3055,22 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -3077,57 +3080,57 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B113" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B114" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B117" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B118" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B120" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -3137,17 +3140,17 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -3157,39 +3160,39 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B127" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B128" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B129" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B130" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -3197,94 +3200,94 @@
         <v>145</v>
       </c>
       <c r="B132" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B134" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B145" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -3294,55 +3297,55 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>537</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>426</v>
+        <v>536</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>427</v>
+        <v>535</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B152" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B153" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B155" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -3352,92 +3355,92 @@
     </row>
     <row r="157" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B158" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B159" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B160" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B161" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B162" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B165" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B166" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B167" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B168" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -3447,111 +3450,111 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B177" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B179" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -3561,18 +3564,18 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B192" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B193" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -3587,12 +3590,12 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -3602,23 +3605,23 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B200" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -3651,7 +3654,7 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3659,7 +3662,7 @@
         <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3667,23 +3670,23 @@
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" t="s">
         <v>288</v>
-      </c>
-      <c r="B6" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3699,7 +3702,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3712,7 +3715,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3720,62 +3723,62 @@
         <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
         <v>156</v>
-      </c>
-      <c r="B12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" t="s">
         <v>286</v>
-      </c>
-      <c r="B14" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" t="s">
         <v>290</v>
-      </c>
-      <c r="B15" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" t="s">
         <v>292</v>
-      </c>
-      <c r="B16" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19" t="s">
         <v>297</v>
-      </c>
-      <c r="B19" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3785,26 +3788,26 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" t="s">
         <v>233</v>
-      </c>
-      <c r="B23" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3817,7 +3820,7 @@
         <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -3832,23 +3835,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" t="s">
         <v>227</v>
-      </c>
-      <c r="B28" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3863,10 +3866,10 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" t="s">
         <v>225</v>
-      </c>
-      <c r="B33" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="57" x14ac:dyDescent="0.2">
@@ -3874,7 +3877,7 @@
         <v>80</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3889,7 +3892,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -3909,10 +3912,10 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41" t="s">
         <v>193</v>
-      </c>
-      <c r="B41" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3925,23 +3928,23 @@
         <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3954,7 +3957,7 @@
         <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3984,10 +3987,10 @@
     </row>
     <row r="53" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -4030,23 +4033,23 @@
         <v>111</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" t="s">
         <v>218</v>
-      </c>
-      <c r="B62" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4059,7 +4062,7 @@
         <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4079,10 +4082,10 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" t="s">
         <v>213</v>
-      </c>
-      <c r="B69" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4105,7 +4108,7 @@
         <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4120,10 +4123,10 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" t="s">
         <v>220</v>
-      </c>
-      <c r="B76" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4131,7 +4134,7 @@
         <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4144,7 +4147,7 @@
         <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4157,12 +4160,12 @@
         <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
@@ -4195,7 +4198,7 @@
         <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4215,10 +4218,10 @@
     </row>
     <row r="92" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4239,7 +4242,7 @@
         <v>114</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4257,7 +4260,7 @@
         <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4265,20 +4268,20 @@
         <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
         <v>207</v>
-      </c>
-      <c r="B100" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4288,10 +4291,10 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B103" t="s">
         <v>269</v>
-      </c>
-      <c r="B103" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4299,12 +4302,12 @@
         <v>117</v>
       </c>
       <c r="B104" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4334,23 +4337,23 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B111" t="s">
         <v>281</v>
-      </c>
-      <c r="B111" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B112" t="s">
         <v>283</v>
-      </c>
-      <c r="B112" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4360,18 +4363,18 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B115" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B116" t="s">
         <v>202</v>
-      </c>
-      <c r="B116" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4384,7 +4387,7 @@
         <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4414,34 +4417,34 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" t="s">
         <v>248</v>
-      </c>
-      <c r="B124" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B125" t="s">
         <v>254</v>
-      </c>
-      <c r="B125" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" t="s">
         <v>258</v>
-      </c>
-      <c r="B126" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -4467,7 +4470,7 @@
         <v>99</v>
       </c>
       <c r="B131" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -4475,15 +4478,15 @@
         <v>98</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -4523,20 +4526,20 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B143" t="s">
         <v>256</v>
-      </c>
-      <c r="B143" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -4561,95 +4564,95 @@
     </row>
     <row r="148" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B148" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B149" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B150" t="s">
         <v>267</v>
-      </c>
-      <c r="B150" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B151" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B155" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B156" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157" t="s">
         <v>183</v>
-      </c>
-      <c r="B157" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" t="s">
         <v>177</v>
-      </c>
-      <c r="B158" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B159" t="s">
         <v>185</v>
-      </c>
-      <c r="B159" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -4657,7 +4660,7 @@
         <v>84</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -4670,7 +4673,7 @@
         <v>79</v>
       </c>
       <c r="B162" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4680,26 +4683,26 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B164" t="s">
         <v>181</v>
-      </c>
-      <c r="B164" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B165" t="s">
         <v>179</v>
-      </c>
-      <c r="B165" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166" t="s">
         <v>175</v>
-      </c>
-      <c r="B166" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -4742,7 +4745,7 @@
         <v>45</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -4750,7 +4753,7 @@
         <v>46</v>
       </c>
       <c r="B175" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -4763,22 +4766,22 @@
         <v>71</v>
       </c>
       <c r="B177" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -4788,12 +4791,12 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -4829,7 +4832,7 @@
         <v>52</v>
       </c>
       <c r="B190" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -4837,7 +4840,7 @@
         <v>51</v>
       </c>
       <c r="B191" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -4870,20 +4873,20 @@
         <v>57</v>
       </c>
       <c r="B197" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B198" t="s">
         <v>173</v>
-      </c>
-      <c r="B198" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
